--- a/xl/solver/menu-planner/diet.xlsx
+++ b/xl/solver/menu-planner/diet.xlsx
@@ -216,17 +216,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,6 +239,15 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +546,7 @@
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -560,422 +563,422 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>3.19</v>
       </c>
-      <c r="E4" s="6">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6">
         <v>9</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="11">
         <f>D4*G4</f>
         <v>28.71</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>60</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <v>20</v>
       </c>
-      <c r="L4" s="6">
-        <v>10</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="L4" s="4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="4">
         <v>15</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="4">
         <v>938</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="4">
         <v>295</v>
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="4"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>2.59</v>
       </c>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="11">
         <f t="shared" ref="H5:H11" si="0">D5*G5</f>
         <v>5.18</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>8</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="4">
         <v>20</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>20</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="4">
         <v>2180</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="4">
         <v>770</v>
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="4"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>2.29</v>
       </c>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8">
-        <v>2</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11">
         <f t="shared" si="0"/>
         <v>4.58</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>8</v>
       </c>
-      <c r="K6" s="6">
-        <v>10</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="K6" s="4">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4">
         <v>15</v>
       </c>
-      <c r="M6" s="6">
-        <v>10</v>
-      </c>
-      <c r="N6" s="6">
+      <c r="M6" s="4">
+        <v>10</v>
+      </c>
+      <c r="N6" s="4">
         <v>945</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <v>440</v>
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2.89</v>
       </c>
-      <c r="E7" s="6">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>10</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6">
         <v>8</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="11">
         <f t="shared" si="0"/>
         <v>23.12</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>40</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <v>40</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="4">
         <v>35</v>
       </c>
-      <c r="M7" s="6">
-        <v>10</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="M7" s="4">
+        <v>10</v>
+      </c>
+      <c r="N7" s="4">
         <v>278</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="4">
         <v>430</v>
       </c>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>1.89</v>
       </c>
-      <c r="E8" s="6">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>10</v>
-      </c>
-      <c r="G8" s="8">
-        <v>10</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <v>10</v>
+      </c>
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>18.899999999999999</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>15</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <v>35</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="4">
         <v>15</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="4">
         <v>15</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="4">
         <v>1182</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="4">
         <v>315</v>
       </c>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>1.99</v>
       </c>
-      <c r="E9" s="6">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>10</v>
-      </c>
-      <c r="G9" s="8">
-        <v>10</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6">
+        <v>10</v>
+      </c>
+      <c r="H9" s="11">
         <f t="shared" si="0"/>
         <v>19.899999999999999</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>70</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="4">
         <v>30</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="4">
         <v>15</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="4">
         <v>15</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="4">
         <v>896</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>1.99</v>
       </c>
-      <c r="E10" s="6">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>10</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
         <v>7</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="11">
         <f t="shared" si="0"/>
         <v>13.93</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>25</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>50</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="4">
         <v>25</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="4">
         <v>15</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="4">
         <v>1329</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="4">
         <v>370</v>
       </c>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>2.4900000000000002</v>
       </c>
-      <c r="E11" s="6">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>10</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>4.9800000000000004</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>60</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <v>20</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="4">
         <v>15</v>
       </c>
-      <c r="M11" s="6">
-        <v>10</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="M11" s="4">
+        <v>10</v>
+      </c>
+      <c r="N11" s="4">
         <v>1397</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="4">
         <v>450</v>
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <f>SUM(H4:H11)</f>
         <v>119.30000000000003</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="I14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="I14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4">
         <v>700</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="4">
         <v>700</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="4">
         <v>700</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="4">
         <v>700</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="4">
         <v>0</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="4">
         <v>16000</v>
       </c>
     </row>
     <row r="15" spans="2:15">
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <v>20000</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="4">
         <v>20000</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="4">
         <v>20000</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="4">
         <v>20000</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="4">
         <v>50000</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="4">
         <v>24000</v>
       </c>
     </row>
@@ -985,6 +988,7 @@
     <mergeCell ref="J2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1042,7 +1046,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{961B17DB-DB6E-498D-8024-40E3CEB8A3D7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{976EF24D-5EED-4547-B9D5-D2B1E0140281}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>
